--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.6968925570908137</v>
+        <v>0.7098847989387026</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.7043433626341646</v>
+        <v>0.7298520223723688</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.7088885641266924</v>
+        <v>0.7101060143950403</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.6985225186644016</v>
+        <v>0.7246483305922792</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.7500291493698359</v>
+        <v>0.7178601808777606</v>
       </c>
     </row>
   </sheetData>
